--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value293.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value293.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.477218410473564</v>
+        <v>0.9896722435951233</v>
       </c>
       <c r="B1">
-        <v>1.790729522780914</v>
+        <v>1.627594113349915</v>
       </c>
       <c r="C1">
-        <v>1.791307132436142</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.213259476708041</v>
+        <v>2.579061031341553</v>
       </c>
       <c r="E1">
-        <v>1.644496100894915</v>
+        <v>1.317069053649902</v>
       </c>
     </row>
   </sheetData>
